--- a/Service invoice (Simple Lines design)1.xlsx
+++ b/Service invoice (Simple Lines design)1.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="2" r:id="rId1"/>
     <sheet name="Service Invoice" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Company_Name">'Service Invoice'!$B$2</definedName>
@@ -29,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Due upon receipt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Date:</t>
   </si>
@@ -40,18 +38,9 @@
     <t>Customer ID:</t>
   </si>
   <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
     <t>Job</t>
   </si>
   <si>
-    <t>Payment Terms</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
     <t>To:</t>
   </si>
   <si>
@@ -152,12 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Additional instructions have been provided in column A in SERVICE INVOICE worksheet. This text has been intentionally hidden. To remove text, select column A, then select DELETE. </t>
-  </si>
-  <si>
-    <t>SALES TAX</t>
-  </si>
-  <si>
-    <t>TAX RATE</t>
   </si>
   <si>
     <t>คลีนซิ่งนมแพะ</t>
@@ -195,17 +178,39 @@
   </si>
   <si>
     <t xml:space="preserve">  จำนวนเงินรวมทั้งสิ้น  </t>
+  </si>
+  <si>
+    <t>อัตราภาษี</t>
+  </si>
+  <si>
+    <t>จำนวนภาษีมูลค่าเพิ่ม</t>
+  </si>
+  <si>
+    <t>กำหนดชำระ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ครบกำหนดเมื่อได้รับ</t>
+  </si>
+  <si>
+    <t>เงื่อนไขการชำระเงิน</t>
+  </si>
+  <si>
+    <t>พนักงานขาย</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode=";;;"/>
-    <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
+    <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -762,24 +767,103 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,10 +874,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="19"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,90 +903,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -930,7 +935,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -969,7 +974,7 @@
         <name val="Arial"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1011,10 +1016,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1041,6 +1046,26 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1056,7 +1081,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1091,7 +1116,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$฿-41E]* #,##0.00_-;\-[$฿-41E]* #,##0.00_-;_-[$฿-41E]* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1111,26 +1136,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <scheme val="major"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1349,7 +1354,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1431,6 +1436,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>286641</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>48762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6382641" cy="8145012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29515</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6735115" cy="7678222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SalesDetails" displayName="SalesDetails" ref="B12:E13" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Normal 5">
   <autoFilter ref="B12:E13">
@@ -1440,10 +1543,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Salesperson" dataDxfId="11"/>
+    <tableColumn id="1" name="พนักงานขาย" dataDxfId="11"/>
     <tableColumn id="2" name="Job" dataDxfId="10"/>
-    <tableColumn id="3" name="Payment Terms" dataDxfId="7"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="6"/>
+    <tableColumn id="3" name="เงื่อนไขการชำระเงิน" dataDxfId="9"/>
+    <tableColumn id="4" name="กำหนดชำระ" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1455,7 +1558,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="InvoiceDetails" displayName="InvoiceDetails" ref="B15:E41" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="8" headerRowCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="InvoiceDetails" displayName="InvoiceDetails" ref="B15:E41" totalsRowCount="1" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Normal 5">
   <autoFilter ref="B15:E40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1781,42 +1884,42 @@
   <sheetData>
     <row r="1" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1832,8 +1935,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1841,178 +1944,182 @@
     <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="60" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="60" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="47" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="48"/>
+        <v>26</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="75">
+        <v>27</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="86">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="26" customFormat="1" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="4"/>
       <c r="C7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="3"/>
       <c r="C8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="3"/>
       <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="3"/>
       <c r="C10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="78"/>
+      <c r="B13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="64"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2021,12 +2128,12 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="69">
+        <v>38</v>
+      </c>
+      <c r="D16" s="56">
         <v>130</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="45">
         <f t="shared" ref="E16:E36" si="0">IF(SUM(B16)&gt;0,SUM(B16*D16),"")</f>
         <v>390</v>
       </c>
@@ -2038,12 +2145,12 @@
         <v>1</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="70">
+        <v>37</v>
+      </c>
+      <c r="D17" s="57">
         <v>230</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="65">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
@@ -2055,12 +2162,12 @@
         <v>3</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="70">
+        <v>39</v>
+      </c>
+      <c r="D18" s="57">
         <v>59</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="65">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
@@ -2072,12 +2179,12 @@
         <v>1</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="70">
+        <v>40</v>
+      </c>
+      <c r="D19" s="57">
         <v>350</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="65">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
@@ -2087,8 +2194,8 @@
       <c r="A20" s="35"/>
       <c r="B20" s="15"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="79" t="str">
+      <c r="D20" s="57"/>
+      <c r="E20" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2098,8 +2205,8 @@
       <c r="A21" s="35"/>
       <c r="B21" s="15"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="79" t="str">
+      <c r="D21" s="57"/>
+      <c r="E21" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2109,8 +2216,8 @@
       <c r="A22" s="35"/>
       <c r="B22" s="15"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="79" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2120,8 +2227,8 @@
       <c r="A23" s="35"/>
       <c r="B23" s="15"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="79" t="str">
+      <c r="D23" s="57"/>
+      <c r="E23" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2131,8 +2238,8 @@
       <c r="A24" s="35"/>
       <c r="B24" s="15"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="79" t="str">
+      <c r="D24" s="57"/>
+      <c r="E24" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2142,8 +2249,8 @@
       <c r="A25" s="35"/>
       <c r="B25" s="15"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="79" t="str">
+      <c r="D25" s="57"/>
+      <c r="E25" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2153,8 +2260,8 @@
       <c r="A26" s="35"/>
       <c r="B26" s="15"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="79" t="str">
+      <c r="D26" s="57"/>
+      <c r="E26" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2164,8 +2271,8 @@
       <c r="A27" s="35"/>
       <c r="B27" s="15"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="79" t="str">
+      <c r="D27" s="57"/>
+      <c r="E27" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2175,8 +2282,8 @@
       <c r="A28" s="35"/>
       <c r="B28" s="15"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="79" t="str">
+      <c r="D28" s="57"/>
+      <c r="E28" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2186,8 +2293,8 @@
       <c r="A29" s="35"/>
       <c r="B29" s="15"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="79" t="str">
+      <c r="D29" s="57"/>
+      <c r="E29" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2197,8 +2304,8 @@
       <c r="A30" s="35"/>
       <c r="B30" s="15"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="79" t="str">
+      <c r="D30" s="57"/>
+      <c r="E30" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2208,8 +2315,8 @@
       <c r="A31" s="35"/>
       <c r="B31" s="15"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="79" t="str">
+      <c r="D31" s="57"/>
+      <c r="E31" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2219,8 +2326,8 @@
       <c r="A32" s="35"/>
       <c r="B32" s="15"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="79" t="str">
+      <c r="D32" s="57"/>
+      <c r="E32" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2230,8 +2337,8 @@
       <c r="A33" s="35"/>
       <c r="B33" s="15"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="79" t="str">
+      <c r="D33" s="57"/>
+      <c r="E33" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2241,8 +2348,8 @@
       <c r="A34" s="35"/>
       <c r="B34" s="15"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="79" t="str">
+      <c r="D34" s="57"/>
+      <c r="E34" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2252,8 +2359,8 @@
       <c r="A35" s="35"/>
       <c r="B35" s="15"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="79" t="str">
+      <c r="D35" s="57"/>
+      <c r="E35" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2263,8 +2370,8 @@
       <c r="A36" s="35"/>
       <c r="B36" s="15"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="79" t="str">
+      <c r="D36" s="57"/>
+      <c r="E36" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2273,10 +2380,10 @@
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="80">
+      <c r="D37" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="66">
         <f>IF(SUM(E16:E36)&gt;0,SUM(E16:E36),"")</f>
         <v>1147</v>
       </c>
@@ -2285,98 +2392,98 @@
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="81"/>
+      <c r="D38" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="67"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="85">
+      <c r="D39" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="71">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="59"/>
-      <c r="D40" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="82">
+      <c r="C40" s="46"/>
+      <c r="D40" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="68">
         <f>IFERROR(E37*E39, "")</f>
         <v>17.204999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="83"/>
-      <c r="D41" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="84">
+      <c r="C41" s="69"/>
+      <c r="D41" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="70">
         <f>IF(SUM(E37)&gt;0,SUM((E37*E38)+E37+E40),"")</f>
         <v>1164.2049999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="52" t="str">
+        <v>33</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="80" t="str">
         <f>B3</f>
         <v>Your Company Name</v>
       </c>
-      <c r="E42" s="52"/>
+      <c r="E42" s="80"/>
     </row>
     <row r="43" spans="1:6" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+        <v>34</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="10"/>
-      <c r="D47" s="73"/>
+      <c r="D47" s="60"/>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2400,7 +2507,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="E16:E36" emptyCellReference="1"/>
@@ -2417,7 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2430,32 +2539,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -2666,25 +2774,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F1C080F-93BB-45C3-9F16-21DAD2A3A197}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54052FB7-D2F8-411E-99D4-C6DC8353E0B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BFB61EC-CF8B-4854-B2CC-F0F9AD948B4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2701,4 +2808,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54052FB7-D2F8-411E-99D4-C6DC8353E0B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F1C080F-93BB-45C3-9F16-21DAD2A3A197}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>